--- a/release/eBom Dhyey Bhatt AlumaPower Etch-A-Sketch.xlsx
+++ b/release/eBom Dhyey Bhatt AlumaPower Etch-A-Sketch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DhyeyBhatt\Desktop\MyProjects\Etch-A-Sketch_Coop_Project\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CEC1D8-B220-4F89-BA29-8B0EDAF594C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA96BD84-13C9-48DE-B3C8-3C822D673665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="163">
   <si>
     <t>Part Number</t>
   </si>
@@ -744,7 +744,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -762,6 +761,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -984,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:K1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1006,9 +1008,9 @@
       <c r="A1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="26">
+      <c r="B1" s="25">
         <f>H46</f>
-        <v>189.14166666666665</v>
+        <v>196.98166666666665</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>150</v>
@@ -1017,7 +1019,6 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C2" s="25"/>
       <c r="F2" s="2"/>
       <c r="H2" s="3"/>
     </row>
@@ -1054,7 +1055,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1073,20 +1074,20 @@
         <v>1</v>
       </c>
       <c r="G4" s="9">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" ref="H4:H39" si="0">F4*G4</f>
-        <v>0.47</v>
-      </c>
-      <c r="I4" s="12" t="s">
+        <v>0.59</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1105,20 +1106,20 @@
         <v>1</v>
       </c>
       <c r="G5" s="9">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="I5" s="12" t="s">
+        <v>0.21</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>125</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -1137,20 +1138,20 @@
         <v>7</v>
       </c>
       <c r="G6" s="9">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I6" s="12" t="s">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>128</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -1169,20 +1170,20 @@
         <v>5</v>
       </c>
       <c r="G7" s="9">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="I7" s="12" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>131</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1201,20 +1202,20 @@
         <v>1</v>
       </c>
       <c r="G8" s="9">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="12" t="s">
+        <v>0.06</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>140</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1233,20 +1234,20 @@
         <v>1</v>
       </c>
       <c r="G9" s="9">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="12" t="s">
+        <v>0.06</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>134</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1265,20 +1266,20 @@
         <v>5</v>
       </c>
       <c r="G10" s="9">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="I10" s="12" t="s">
+        <v>1.25</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>137</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1297,20 +1298,20 @@
         <v>1</v>
       </c>
       <c r="G11" s="9">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-      <c r="I11" s="12" t="s">
+        <v>0.35</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1322,21 +1323,21 @@
       <c r="D12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28">
+      <c r="E12" s="26"/>
+      <c r="F12" s="27">
         <v>8</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29">
+      <c r="G12" s="28"/>
+      <c r="H12" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1355,13 +1356,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="9">
-        <v>3.21</v>
+        <v>4.78</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>3.21</v>
-      </c>
-      <c r="I13" s="12" t="s">
+        <v>4.78</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="13" t="s">
@@ -1370,7 +1371,7 @@
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1389,20 +1390,20 @@
         <v>1</v>
       </c>
       <c r="G14" s="9">
-        <v>1.81</v>
+        <v>2.7</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>1.81</v>
-      </c>
-      <c r="I14" s="12" t="s">
+        <v>2.7</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>35</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1421,11 +1422,11 @@
         <v>2</v>
       </c>
       <c r="G15" s="9">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I15" s="20" t="s">
         <v>122</v>
@@ -1434,7 +1435,7 @@
       <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="32">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1453,11 +1454,11 @@
         <v>2</v>
       </c>
       <c r="G16" s="9">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>143</v>
@@ -1466,7 +1467,7 @@
       <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1485,11 +1486,11 @@
         <v>1</v>
       </c>
       <c r="G17" s="9">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>146</v>
@@ -1498,7 +1499,7 @@
       <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="32">
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1517,11 +1518,11 @@
         <v>1</v>
       </c>
       <c r="G18" s="9">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I18" s="20" t="s">
         <v>149</v>
@@ -1530,7 +1531,7 @@
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="32">
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1549,11 +1550,11 @@
         <v>3</v>
       </c>
       <c r="G19" s="9">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.03</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>153</v>
@@ -1562,7 +1563,7 @@
       <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1581,20 +1582,20 @@
         <v>2</v>
       </c>
       <c r="G20" s="9">
-        <v>1.42</v>
+        <v>1.79</v>
       </c>
       <c r="H20" s="9">
         <f t="shared" si="0"/>
-        <v>2.84</v>
-      </c>
-      <c r="I20" s="12" t="s">
+        <v>3.58</v>
+      </c>
+      <c r="I20" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="32">
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -1613,11 +1614,11 @@
         <v>1</v>
       </c>
       <c r="G21" s="9">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>156</v>
@@ -1626,7 +1627,7 @@
       <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="32">
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -1645,11 +1646,11 @@
         <v>3</v>
       </c>
       <c r="G22" s="9">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.03</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>159</v>
@@ -1658,7 +1659,7 @@
       <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="32">
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1677,11 +1678,11 @@
         <v>2</v>
       </c>
       <c r="G23" s="9">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>162</v>
@@ -1690,7 +1691,7 @@
       <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33">
+      <c r="A24" s="32">
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1709,11 +1710,11 @@
         <v>1</v>
       </c>
       <c r="G24" s="9">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>43</v>
@@ -1722,7 +1723,7 @@
       <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+      <c r="A25" s="32">
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -1741,11 +1742,11 @@
         <v>1</v>
       </c>
       <c r="G25" s="9">
-        <v>0.71</v>
+        <v>0.92</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="0"/>
-        <v>0.71</v>
+        <v>0.92</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>116</v>
@@ -1754,7 +1755,7 @@
       <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
+      <c r="A26" s="32">
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1766,21 +1767,21 @@
       <c r="D26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28">
+      <c r="E26" s="26"/>
+      <c r="F26" s="27">
         <v>1</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29">
+      <c r="G26" s="28"/>
+      <c r="H26" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
+      <c r="A27" s="32">
         <v>24</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1792,21 +1793,21 @@
       <c r="D27" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28">
+      <c r="E27" s="26"/>
+      <c r="F27" s="27">
         <v>1</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29">
+      <c r="G27" s="28"/>
+      <c r="H27" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="32">
         <v>25</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -1818,21 +1819,21 @@
       <c r="D28" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28">
+      <c r="E28" s="26"/>
+      <c r="F28" s="27">
         <v>1</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29">
+      <c r="G28" s="28"/>
+      <c r="H28" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
+      <c r="A29" s="32">
         <v>26</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -1844,21 +1845,21 @@
       <c r="D29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28">
+      <c r="E29" s="26"/>
+      <c r="F29" s="27">
         <v>1</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29">
+      <c r="G29" s="28"/>
+      <c r="H29" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
     </row>
     <row r="30" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33">
+      <c r="A30" s="32">
         <v>27</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1870,21 +1871,21 @@
       <c r="D30" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28">
+      <c r="E30" s="26"/>
+      <c r="F30" s="27">
         <v>1</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29">
+      <c r="G30" s="28"/>
+      <c r="H30" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
     </row>
     <row r="31" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="32">
         <v>28</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1903,20 +1904,20 @@
         <v>1</v>
       </c>
       <c r="G31" s="9">
-        <v>5.17</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" si="0"/>
-        <v>5.17</v>
-      </c>
-      <c r="I31" s="12" t="s">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I31" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
+      <c r="A32" s="32">
         <v>29</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1935,20 +1936,20 @@
         <v>1</v>
       </c>
       <c r="G32" s="9">
-        <v>1.1399999999999999</v>
+        <v>1.81</v>
       </c>
       <c r="H32" s="9">
         <f t="shared" si="0"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="I32" s="12" t="s">
+        <v>1.81</v>
+      </c>
+      <c r="I32" s="20" t="s">
         <v>26</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
+      <c r="A33" s="32">
         <v>30</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1967,20 +1968,20 @@
         <v>1</v>
       </c>
       <c r="G33" s="9">
-        <v>1.47</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H33" s="9">
         <f t="shared" si="0"/>
-        <v>1.47</v>
-      </c>
-      <c r="I33" s="12" t="s">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I33" s="20" t="s">
         <v>33</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
+      <c r="A34" s="32">
         <v>31</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -1999,20 +2000,20 @@
         <v>2</v>
       </c>
       <c r="G34" s="9">
-        <v>1.85</v>
+        <v>2.94</v>
       </c>
       <c r="H34" s="9">
         <f t="shared" si="0"/>
-        <v>3.7</v>
-      </c>
-      <c r="I34" s="12" t="s">
+        <v>5.88</v>
+      </c>
+      <c r="I34" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
+      <c r="A35" s="32">
         <v>32</v>
       </c>
       <c r="B35" s="7"/>
@@ -2033,16 +2034,16 @@
         <f t="shared" si="0"/>
         <v>157.85</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="33" t="s">
         <v>8</v>
       </c>
       <c r="J35" s="10"/>
-      <c r="K35" s="32" t="s">
+      <c r="K35" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33">
+      <c r="A36" s="32">
         <v>33</v>
       </c>
       <c r="B36" s="7"/>
@@ -2073,10 +2074,12 @@
       <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="32">
         <v>34</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
         <v>44</v>
@@ -2101,10 +2104,12 @@
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
+      <c r="A38" s="32">
         <v>35</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
         <v>117</v>
@@ -2151,7 +2156,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9">
-        <f t="shared" ref="H37:H44" si="1">F40*G40</f>
+        <f t="shared" ref="H40:H44" si="1">F40*G40</f>
         <v>0</v>
       </c>
       <c r="I40" s="20"/>
@@ -2228,7 +2233,7 @@
       </c>
       <c r="H46" s="16">
         <f>SUM(H4:H45)</f>
-        <v>189.14166666666665</v>
+        <v>196.98166666666665</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
@@ -6161,6 +6166,13 @@
     <hyperlink ref="I21" r:id="rId20" xr:uid="{D3543C09-D542-45B7-B986-69103C636038}"/>
     <hyperlink ref="I22" r:id="rId21" xr:uid="{162E5F60-B6F3-4BEE-9CBC-59E50D848F9B}"/>
     <hyperlink ref="I23" r:id="rId22" xr:uid="{3EA7DFF6-D941-4F96-98BB-6E7A73041D53}"/>
+    <hyperlink ref="I5" r:id="rId23" xr:uid="{BF324C83-EF24-44C0-B36E-5A20D55F9D31}"/>
+    <hyperlink ref="I6" r:id="rId24" xr:uid="{8E45914E-3F42-4BAD-8D99-9D6683DD32A9}"/>
+    <hyperlink ref="I7" r:id="rId25" xr:uid="{F92804DD-F3CA-4064-BB58-1072A2DFDAF1}"/>
+    <hyperlink ref="I8" r:id="rId26" xr:uid="{F5B4B00B-42C9-40A1-A2CB-6F65B1899609}"/>
+    <hyperlink ref="I9" r:id="rId27" xr:uid="{71A9D74F-21E3-451C-B508-571EA18D123B}"/>
+    <hyperlink ref="I10" r:id="rId28" xr:uid="{69ABE64E-0D5F-468E-A40C-536BCB500E2B}"/>
+    <hyperlink ref="I15" r:id="rId29" xr:uid="{075E5016-AB27-4128-9C9E-D88691DF40CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
